--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.15.4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.15.4.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Nazionale\Test Case\RIS - validazione corrente - risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCEB62D-4B01-41AD-8C9B-BC83EB4F7E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109473EC-6645-4CF4-B209-E1D0CAC0EF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="284">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1278,6 +1278,9 @@
   <si>
     <t>Il Modulo Priamo RIS gestisce il campo della tipologia di accesso ma se il valore non corrisponde ai valori gestiti il tag NON viene inserito nel CDA2.
 Questo comporta che non risulta possibile avere il tag popolato con un valore NON previsto.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30712.4.4.97ebe2e1357fa59f5c80be7db3375369fb764ab5cebd06d3b76ad2dd05d6132c.58f063b54f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2024,10 +2027,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -3088,11 +3091,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -3164,7 +3167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -4187,26 +4190,26 @@
   <dimension ref="A1:T680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
-    <col min="6" max="9" width="33.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="53.5546875" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
-    <col min="19" max="20" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="53.5703125" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -4441,7 +4444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="10" spans="1:20" ht="135.75" thickBot="1">
       <c r="A10" s="20">
         <v>11</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="11" spans="1:20" ht="135.75" thickBot="1">
       <c r="A11" s="20">
         <v>12</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="12" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A12" s="20">
         <v>13</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="13" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A13" s="20">
         <v>14</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="14" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A14" s="20">
         <v>31</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="15" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A15" s="20">
         <v>32</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="16" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A16" s="20">
         <v>39</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="17" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A17" s="20">
         <v>40</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="231" thickBot="1">
+    <row r="18" spans="1:20" ht="240.75" thickBot="1">
       <c r="A18" s="20">
         <v>47</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="231" thickBot="1">
+    <row r="19" spans="1:20" ht="240.75" thickBot="1">
       <c r="A19" s="20">
         <v>48</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A20" s="20">
         <v>75</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="231" thickBot="1">
+    <row r="21" spans="1:20" ht="240.75" thickBot="1">
       <c r="A21" s="20">
         <v>76</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="22" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A22" s="20">
         <v>77</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="23" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A23" s="20">
         <v>78</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="24" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A24" s="20">
         <v>79</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="231" thickBot="1">
+    <row r="25" spans="1:20" ht="270.75" thickBot="1">
       <c r="A25" s="20">
         <v>80</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="159" hidden="1" thickBot="1">
+    <row r="26" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A26" s="20">
         <v>81</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="27" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A27" s="20">
         <v>82</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="28" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A28" s="20">
         <v>83</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="29" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A29" s="20">
         <v>84</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="30" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A30" s="20">
         <v>85</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="31" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A31" s="20">
         <v>86</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="32" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A32" s="20">
         <v>87</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="33" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A33" s="20">
         <v>88</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="34" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A34" s="20">
         <v>89</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="35" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A35" s="20">
         <v>90</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="36" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A36" s="20">
         <v>91</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="37" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A37" s="20">
         <v>92</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A38" s="20">
         <v>93</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="159" hidden="1" thickBot="1">
+    <row r="39" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A39" s="20">
         <v>147</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="159" hidden="1" thickBot="1">
+    <row r="40" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A40" s="20">
         <v>148</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="159" hidden="1" thickBot="1">
+    <row r="41" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A41" s="20">
         <v>149</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="159" hidden="1" thickBot="1">
+    <row r="42" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A42" s="20">
         <v>150</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="43" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A43" s="20">
         <v>151</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="231" thickBot="1">
+    <row r="44" spans="1:20" ht="270.75" thickBot="1">
       <c r="A44" s="20">
         <v>152</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="45" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A45" s="20">
         <v>153</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="46" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A46" s="20">
         <v>154</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="47" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A47" s="20">
         <v>155</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="231" thickBot="1">
+    <row r="48" spans="1:20" ht="270.75" thickBot="1">
       <c r="A48" s="20">
         <v>156</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="49" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A49" s="20">
         <v>157</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="50" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A50" s="20">
         <v>158</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="51" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A51" s="20">
         <v>159</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="101.4" hidden="1" thickBot="1">
+    <row r="52" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A52" s="20">
         <v>160</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="53" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A53" s="20">
         <v>161</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="54" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A54" s="20">
         <v>162</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="55" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A55" s="20">
         <v>163</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="56" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A56" s="20">
         <v>164</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1">
+    <row r="57" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A57" s="20">
         <v>165</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="58" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A58" s="20">
         <v>166</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="144.6" hidden="1" thickBot="1">
+    <row r="59" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A59" s="20">
         <v>167</v>
       </c>
@@ -6471,7 +6474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="60" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A60" s="20">
         <v>168</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="115.8" hidden="1" thickBot="1">
+    <row r="61" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A61" s="20">
         <v>169</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="130.19999999999999" thickBot="1">
+    <row r="62" spans="1:20" ht="135.75" thickBot="1">
       <c r="A62" s="20">
         <v>370</v>
       </c>
@@ -6572,7 +6575,9 @@
       <c r="H62" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="J62" s="25" t="s">
         <v>72</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="158.4">
+    <row r="63" spans="1:20" ht="165">
       <c r="A63" s="20">
         <v>374</v>
       </c>
@@ -11339,13 +11344,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -11432,7 +11437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" hidden="1">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -11446,7 +11451,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>64</v>
       </c>
@@ -11460,7 +11465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" hidden="1">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
@@ -11474,7 +11479,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" hidden="1">
+    <row r="10" spans="1:4" ht="45" hidden="1">
       <c r="A10" s="11" t="s">
         <v>182</v>
       </c>
@@ -13023,11 +13028,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.15.4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.15.4.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Nazionale\Test Case\RIS - validazione corrente - risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109473EC-6645-4CF4-B209-E1D0CAC0EF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F378E-25B7-4348-A10C-42D0F3A11D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="283">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1165,11 +1165,6 @@
     <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo ci sono i controlli sulla validatà dal campo sesso.</t>
   </si>
   <si>
-    <t>L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
-1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
-2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
-  </si>
-  <si>
     <t>"Errore durante la firma digitale: Errore durante la validazione del documento per il fascicolo sanitario." + la descrizione dell'errore ritornata dal gateway</t>
   </si>
   <si>
@@ -1198,11 +1193,6 @@
   </si>
   <si>
     <t>Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE</t>
-  </si>
-  <si>
-    <t>L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
-1. L'errore è bloccante e il referto torna in coda di firma. Il medico può ripetere la firma e nel caso abbia successo il documento viene archiviato su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
-2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Il medico può successivamente  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
   </si>
   <si>
     <t>14/03/2024 11:05:52 +0100 (CET)</t>
@@ -1281,6 +1271,11 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30712.4.4.97ebe2e1357fa59f5c80be7db3375369fb764ab5cebd06d3b76ad2dd05d6132c.58f063b54f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Il medico può ripetere la firma e nel caso abbia successo il documento viene archiviato su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Il medico può successivamente  generare e firmare un referto sostitutivo (che abbiamo superato la validazione del gateway) e archiviarlo su respoitory aziendale. L'invio a FSE o al middelware regionale è demandato al processo di pubblicazione gestito dal repository aziendale/middleware regionale. Spetta all'azienda definire con tutti gli attori convolti i processi informatici ed organizzativi per garantire che il processesso di pubblicazione sia conforme agli scenari regionali e nazionali.</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1338,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1609,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1729,6 +1731,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4190,10 +4195,10 @@
   <dimension ref="A1:T680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4764,7 +4769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="240.75" thickBot="1">
+    <row r="18" spans="1:20" ht="330.75" thickBot="1">
       <c r="A18" s="20">
         <v>47</v>
       </c>
@@ -4795,13 +4800,13 @@
         <v>72</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>216</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="25" t="s">
         <v>214</v>
@@ -4814,7 +4819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="240.75" thickBot="1">
+    <row r="19" spans="1:20" ht="330.75" thickBot="1">
       <c r="A19" s="20">
         <v>48</v>
       </c>
@@ -4845,13 +4850,13 @@
         <v>72</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>216</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="25" t="s">
         <v>214</v>
@@ -4864,7 +4869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="20">
         <v>75</v>
       </c>
@@ -4902,7 +4907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="240.75" thickBot="1">
+    <row r="21" spans="1:20" ht="330.75" thickBot="1">
       <c r="A21" s="20">
         <v>76</v>
       </c>
@@ -4922,13 +4927,13 @@
         <v>45365</v>
       </c>
       <c r="G21" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>262</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>264</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>72</v>
@@ -4941,13 +4946,13 @@
         <v>72</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="25" t="s">
         <v>214</v>
@@ -4956,13 +4961,13 @@
         <v>72</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T21" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="20">
         <v>77</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>216</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -5024,7 +5029,7 @@
         <v>216</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -5076,7 +5081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="270.75" thickBot="1">
+    <row r="25" spans="1:20" ht="330.75" thickBot="1">
       <c r="A25" s="20">
         <v>80</v>
       </c>
@@ -5096,13 +5101,13 @@
         <v>45365</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>72</v>
@@ -5115,13 +5120,13 @@
         <v>72</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="25" t="s">
         <v>214</v>
@@ -5160,7 +5165,7 @@
         <v>216</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -5198,7 +5203,7 @@
         <v>216</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -5236,7 +5241,7 @@
         <v>216</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -5274,7 +5279,7 @@
         <v>216</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -5350,7 +5355,7 @@
         <v>216</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -5388,7 +5393,7 @@
         <v>216</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5504,7 +5509,7 @@
         <v>216</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5542,7 +5547,7 @@
         <v>216</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -5618,7 +5623,7 @@
         <v>216</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -5656,7 +5661,7 @@
         <v>216</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -5694,7 +5699,7 @@
         <v>216</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
@@ -5732,7 +5737,7 @@
         <v>216</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
@@ -5808,7 +5813,7 @@
         <v>216</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -5822,7 +5827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="270.75" thickBot="1">
+    <row r="44" spans="1:20" ht="330.75" thickBot="1">
       <c r="A44" s="20">
         <v>152</v>
       </c>
@@ -5842,18 +5847,18 @@
         <v>45364</v>
       </c>
       <c r="G44" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="I44" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K44" s="25"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="25" t="s">
         <v>72</v>
       </c>
@@ -5861,13 +5866,13 @@
         <v>72</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>214</v>
@@ -5876,7 +5881,7 @@
         <v>72</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T44" s="28" t="s">
         <v>60</v>
@@ -5906,7 +5911,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
@@ -5996,7 +6001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="270.75" thickBot="1">
+    <row r="48" spans="1:20" ht="330.75" thickBot="1">
       <c r="A48" s="20">
         <v>156</v>
       </c>
@@ -6016,13 +6021,13 @@
         <v>45364</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H48" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="I48" s="33" t="s">
         <v>252</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>253</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>72</v>
@@ -6035,13 +6040,13 @@
         <v>72</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O48" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>214</v>
@@ -6576,7 +6581,7 @@
         <v>229</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>72</v>
